--- a/Assets/Resources/Item_List_Information.xlsx
+++ b/Assets/Resources/Item_List_Information.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김대현\Desktop\PortalCraft\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\PortalCraft\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E2FA82-59E9-43BC-BF67-53422EF53B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="2310" windowWidth="28800" windowHeight="15345" xr2:uid="{DFE734CA-EA71-4601-BFB2-5A3D250E034B}"/>
+    <workbookView xWindow="6495" yWindow="2310" windowWidth="28800" windowHeight="15345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
   <si>
     <t>모래 블록</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,38 +75,204 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grass</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>Brick_Brown</t>
-  </si>
-  <si>
-    <t>Brick_Black</t>
-  </si>
-  <si>
-    <t>Random</t>
+    <t>궁수 옷 T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수 옷 T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사 옷 T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사 옷 T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사 옷 T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수 투구 T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수 투구 T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사 투구 T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사 투구 T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곡갱이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검 T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검 T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활 T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활 T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈 조각 T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈 조각 T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쥐 가죽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 점액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크 가죽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈 다귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통 나무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합 대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 판자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈 블록 T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈 블록 T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황토색 벽돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색 벽돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤 블록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 판자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거미 줄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helmet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arms</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>About</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,302 +632,1267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0F0173-0C0C-4788-AA08-2BD1517EF273}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
     <col min="4" max="4" width="25.125" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1">
         <v>1</v>
       </c>
       <c r="F1" s="1">
+        <v>99</v>
+      </c>
+      <c r="G1" s="1">
         <v>50</v>
       </c>
-      <c r="G1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="H1" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>99</v>
+      </c>
+      <c r="G2" s="1">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>99</v>
+      </c>
+      <c r="G3" s="1">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1">
+        <v>150</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>99</v>
+      </c>
+      <c r="G5" s="1">
+        <v>120</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>99</v>
+      </c>
+      <c r="G6" s="1">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>99</v>
+      </c>
+      <c r="G7" s="1">
+        <v>140</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>99</v>
+      </c>
+      <c r="G8" s="1">
+        <v>140</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>99</v>
+      </c>
+      <c r="G9" s="1">
+        <v>80</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>99</v>
+      </c>
+      <c r="G10" s="1">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>80</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>99</v>
+      </c>
+      <c r="G11" s="1">
+        <v>150</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>99</v>
+      </c>
+      <c r="G12" s="1">
+        <v>151</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>101</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>102</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>103</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>104</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>105</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>106</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>107</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>108</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>201</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>202</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>203</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>204</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>205</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1">
+        <v>10</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>206</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>207</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>10</v>
+      </c>
+      <c r="H27" s="1">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>208</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>10</v>
+      </c>
+      <c r="H28" s="1">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>209</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>99</v>
+      </c>
+      <c r="G29" s="1">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1">
+        <v>10</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>301</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>99</v>
+      </c>
+      <c r="G30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>302</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>150</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>120</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>100</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>140</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>140</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>80</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>99</v>
+      </c>
+      <c r="G31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>303</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>99</v>
+      </c>
+      <c r="G32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>304</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>99</v>
+      </c>
+      <c r="G33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>305</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>99</v>
+      </c>
+      <c r="G34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>306</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>99</v>
+      </c>
+      <c r="G35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>307</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>99</v>
+      </c>
+      <c r="G36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>308</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>99</v>
+      </c>
+      <c r="G37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>309</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>401</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>99</v>
+      </c>
+      <c r="G39" s="1">
+        <v>30</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>402</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>99</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>30</v>
+      </c>
+      <c r="I40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Item_List_Information.xlsx
+++ b/Assets/Resources/Item_List_Information.xlsx
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Resources/Item_List_Information.xlsx
+++ b/Assets/Resources/Item_List_Information.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
   <si>
     <t>모래 블록</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,14 +188,6 @@
   </si>
   <si>
     <t>나무 판자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포탈 블록 T1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포탈 블록 T2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -633,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,7 +649,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -687,7 +679,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -717,7 +709,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -747,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -767,7 +759,6 @@
       <c r="I4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -777,7 +768,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -797,7 +788,6 @@
       <c r="I5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -807,7 +797,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -827,7 +817,6 @@
       <c r="I6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -837,7 +826,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
@@ -857,7 +846,6 @@
       <c r="I7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -867,7 +855,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -897,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -927,7 +915,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>38</v>
@@ -951,76 +939,82 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>150</v>
-      </c>
-      <c r="H11" s="1" t="b">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
         <v>1</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="J11" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>151</v>
-      </c>
-      <c r="H12" s="1" t="b">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="J12" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1032,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>0</v>
@@ -1044,16 +1038,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1065,7 +1059,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I14" s="1" t="b">
         <v>0</v>
@@ -1077,16 +1071,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1095,31 +1089,29 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>10</v>
-      </c>
-      <c r="H15" s="1">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="I15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1" t="b">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1128,31 +1120,29 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>15</v>
-      </c>
-      <c r="H16" s="1">
-        <v>15</v>
+        <v>100</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="I16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="b">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1161,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H17" s="1" t="b">
         <v>0</v>
@@ -1174,16 +1164,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1192,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="H18" s="1" t="b">
         <v>0</v>
@@ -1205,16 +1195,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1225,27 +1215,29 @@
       <c r="G19" s="1">
         <v>10</v>
       </c>
-      <c r="H19" s="1" t="b">
-        <v>0</v>
+      <c r="H19" s="1">
+        <v>0.3</v>
       </c>
       <c r="I19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1254,29 +1246,31 @@
         <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>15</v>
-      </c>
-      <c r="H20" s="1" t="b">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.6</v>
       </c>
       <c r="I20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1288,7 +1282,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="1">
-        <v>10</v>
+        <v>0.4</v>
       </c>
       <c r="I21" s="1" t="b">
         <v>0</v>
@@ -1300,16 +1294,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1318,10 +1312,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H22" s="1">
-        <v>10</v>
+        <v>0.4</v>
       </c>
       <c r="I22" s="1" t="b">
         <v>0</v>
@@ -1333,16 +1327,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1351,10 +1345,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H23" s="1">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="I23" s="1" t="b">
         <v>0</v>
@@ -1366,16 +1360,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1387,7 +1381,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="1">
-        <v>10</v>
+        <v>0.4</v>
       </c>
       <c r="I24" s="1" t="b">
         <v>0</v>
@@ -1399,16 +1393,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1417,10 +1411,10 @@
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H25" s="1">
-        <v>10</v>
+        <v>0.4</v>
       </c>
       <c r="I25" s="1" t="b">
         <v>0</v>
@@ -1432,16 +1426,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1450,10 +1444,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H26" s="1">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="I26" s="1" t="b">
         <v>0</v>
@@ -1465,28 +1459,28 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="G27" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H27" s="1">
-        <v>10</v>
+        <v>0.6</v>
       </c>
       <c r="I27" s="1" t="b">
         <v>0</v>
@@ -1498,49 +1492,45 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>208</v>
+        <v>301</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>10</v>
-      </c>
-      <c r="H28" s="1">
-        <v>10</v>
-      </c>
-      <c r="I28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1" t="b">
-        <v>0</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>209</v>
+        <v>302</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1548,32 +1538,28 @@
       <c r="F29" s="1">
         <v>99</v>
       </c>
-      <c r="G29" s="1">
-        <v>10</v>
-      </c>
-      <c r="H29" s="1">
-        <v>10</v>
-      </c>
-      <c r="I29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="G29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1593,16 +1579,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1622,16 +1608,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1651,16 +1637,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1680,16 +1666,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1703,22 +1689,19 @@
       <c r="H34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -1732,28 +1715,25 @@
       <c r="H35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="G36" s="1" t="b">
         <v>0</v>
@@ -1764,16 +1744,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>308</v>
+        <v>401</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -1781,114 +1761,62 @@
       <c r="F37" s="1">
         <v>99</v>
       </c>
-      <c r="G37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1" t="b">
+      <c r="G37" s="1">
+        <v>30</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>309</v>
+        <v>402</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1" t="b">
+        <v>99</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>30</v>
+      </c>
+      <c r="I38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>401</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>99</v>
-      </c>
-      <c r="G39" s="1">
-        <v>30</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>402</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>99</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <v>30</v>
-      </c>
-      <c r="I40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Item_List_Information.xlsx
+++ b/Assets/Resources/Item_List_Information.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>모래 블록</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보스 템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>통 나무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,6 +254,18 @@
   </si>
   <si>
     <t>About</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 증표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,7 +636,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="J38" sqref="A1:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -649,7 +657,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -679,7 +687,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -709,7 +717,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -739,7 +747,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -768,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -797,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -826,7 +834,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
@@ -855,7 +863,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -885,7 +893,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -915,10 +923,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -942,7 +950,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -975,7 +983,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
@@ -1008,7 +1016,7 @@
         <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -1041,7 +1049,7 @@
         <v>104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -1074,7 +1082,7 @@
         <v>105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -1105,7 +1113,7 @@
         <v>106</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
@@ -1136,7 +1144,7 @@
         <v>107</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>17</v>
@@ -1167,7 +1175,7 @@
         <v>108</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
@@ -1198,7 +1206,7 @@
         <v>201</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>19</v>
@@ -1231,7 +1239,7 @@
         <v>202</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -1264,7 +1272,7 @@
         <v>203</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>21</v>
@@ -1297,7 +1305,7 @@
         <v>204</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>22</v>
@@ -1330,7 +1338,7 @@
         <v>205</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>23</v>
@@ -1363,7 +1371,7 @@
         <v>206</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>24</v>
@@ -1396,7 +1404,7 @@
         <v>207</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>25</v>
@@ -1429,7 +1437,7 @@
         <v>208</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>26</v>
@@ -1462,7 +1470,7 @@
         <v>209</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>27</v>
@@ -1495,25 +1503,25 @@
         <v>301</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1521,16 +1529,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>302</v>
+        <v>401</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1550,16 +1558,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>303</v>
+        <v>402</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1579,16 +1587,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>304</v>
+        <v>403</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1608,16 +1616,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>305</v>
+        <v>404</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1637,16 +1645,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>306</v>
+        <v>405</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1666,16 +1674,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>307</v>
+        <v>406</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1689,19 +1697,22 @@
       <c r="H34" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>308</v>
+        <v>407</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -1718,16 +1729,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>309</v>
+        <v>408</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -1744,16 +1755,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -1764,28 +1775,26 @@
       <c r="G37" s="1">
         <v>30</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I37" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J37" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>402</v>
+        <v>502</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1794,17 +1803,15 @@
         <v>99</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
         <v>30</v>
       </c>
+      <c r="H38" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J38" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>

--- a/Assets/Resources/Item_List_Information.xlsx
+++ b/Assets/Resources/Item_List_Information.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\PortalCraft\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shine\Desktop\Git Repository\PortalCraft\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE695EDC-5C04-48A2-974E-C6AAF01F13A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="2310" windowWidth="28800" windowHeight="15345"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="60">
   <si>
     <t>모래 블록</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,13 +258,17 @@
   </si>
   <si>
     <t>보스 증표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -632,11 +628,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J38" sqref="A1:J38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -649,7 +645,7 @@
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -678,8 +674,11 @@
         <v>0</v>
       </c>
       <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -708,8 +707,11 @@
         <v>0</v>
       </c>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -738,8 +740,11 @@
         <v>0</v>
       </c>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -767,8 +772,11 @@
       <c r="I4" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -796,8 +804,11 @@
       <c r="I5" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -825,8 +836,11 @@
       <c r="I6" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -854,8 +868,11 @@
       <c r="I7" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -884,8 +901,11 @@
         <v>0</v>
       </c>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -914,8 +934,11 @@
         <v>0</v>
       </c>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -944,8 +967,11 @@
         <v>0</v>
       </c>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>101</v>
       </c>
@@ -978,7 +1004,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>102</v>
       </c>
@@ -1011,7 +1037,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>103</v>
       </c>
@@ -1044,7 +1070,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>104</v>
       </c>
@@ -1077,7 +1103,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>105</v>
       </c>
@@ -1108,7 +1134,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>106</v>
       </c>
@@ -1139,7 +1165,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>107</v>
       </c>
@@ -1170,7 +1196,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>108</v>
       </c>
@@ -1201,7 +1227,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>201</v>
       </c>
@@ -1233,8 +1259,11 @@
         <v>0</v>
       </c>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>202</v>
       </c>
@@ -1266,8 +1295,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>203</v>
       </c>
@@ -1299,8 +1331,11 @@
         <v>0</v>
       </c>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>204</v>
       </c>
@@ -1332,8 +1367,11 @@
         <v>0</v>
       </c>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>205</v>
       </c>
@@ -1365,8 +1403,11 @@
         <v>0</v>
       </c>
       <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>206</v>
       </c>
@@ -1398,8 +1439,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>207</v>
       </c>
@@ -1431,8 +1475,11 @@
         <v>0</v>
       </c>
       <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>208</v>
       </c>
@@ -1464,8 +1511,11 @@
         <v>0</v>
       </c>
       <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>209</v>
       </c>
@@ -1497,8 +1547,11 @@
         <v>0</v>
       </c>
       <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>301</v>
       </c>
@@ -1527,7 +1580,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>401</v>
       </c>
@@ -1556,7 +1609,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>402</v>
       </c>
@@ -1585,7 +1638,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>403</v>
       </c>
@@ -1614,7 +1667,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>404</v>
       </c>
@@ -1643,7 +1696,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>405</v>
       </c>
@@ -1672,7 +1725,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>406</v>
       </c>
@@ -1701,7 +1754,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>407</v>
       </c>
@@ -1727,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>408</v>
       </c>
@@ -1753,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>501</v>
       </c>
@@ -1782,8 +1835,11 @@
         <v>0</v>
       </c>
       <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>502</v>
       </c>
@@ -1812,16 +1868,19 @@
         <v>0</v>
       </c>
       <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>

--- a/Assets/Resources/Item_List_Information.xlsx
+++ b/Assets/Resources/Item_List_Information.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shine\Desktop\Git Repository\PortalCraft\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김대현\Desktop\PortalCraft\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE695EDC-5C04-48A2-974E-C6AAF01F13A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31479AE-9081-4AD8-B848-64496239C68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2130" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,14 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>궁수 투구 T1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁수 투구 T2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전사 투구 T1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,18 +143,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>박쥐 가죽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>슬라임 점액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오크 가죽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>뼈 다귀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,6 +246,21 @@
   </si>
   <si>
     <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크 가죽 끈</t>
+  </si>
+  <si>
+    <t>오크 가죽 끈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수 모자 T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수 모자 T2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -653,7 +652,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -675,7 +674,7 @@
       </c>
       <c r="K1" s="1"/>
       <c r="M1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -686,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -708,7 +707,7 @@
       </c>
       <c r="K2" s="1"/>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -719,7 +718,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -741,7 +740,7 @@
       </c>
       <c r="K3" s="1"/>
       <c r="M3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -752,7 +751,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -773,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -784,7 +783,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -805,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -816,7 +815,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -837,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -848,7 +847,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
@@ -869,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -880,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -902,7 +901,7 @@
       </c>
       <c r="K8" s="1"/>
       <c r="M8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -913,7 +912,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -935,7 +934,7 @@
       </c>
       <c r="K9" s="1"/>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -946,10 +945,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -968,7 +967,7 @@
       </c>
       <c r="K10" s="1"/>
       <c r="M10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -976,7 +975,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -1009,7 +1008,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
@@ -1042,7 +1041,7 @@
         <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -1075,7 +1074,7 @@
         <v>104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -1108,13 +1107,13 @@
         <v>105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1139,13 +1138,13 @@
         <v>106</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1170,13 +1169,13 @@
         <v>107</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1201,13 +1200,13 @@
         <v>108</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1232,13 +1231,13 @@
         <v>201</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1260,7 +1259,7 @@
       </c>
       <c r="K19" s="1"/>
       <c r="M19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1268,13 +1267,13 @@
         <v>202</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1296,7 +1295,7 @@
       </c>
       <c r="K20" s="1"/>
       <c r="M20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1304,13 +1303,13 @@
         <v>203</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1332,7 +1331,7 @@
       </c>
       <c r="K21" s="1"/>
       <c r="M21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1340,13 +1339,13 @@
         <v>204</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1368,7 +1367,7 @@
       </c>
       <c r="K22" s="1"/>
       <c r="M22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1376,13 +1375,13 @@
         <v>205</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1404,7 +1403,7 @@
       </c>
       <c r="K23" s="1"/>
       <c r="M23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1412,13 +1411,13 @@
         <v>206</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1440,7 +1439,7 @@
       </c>
       <c r="K24" s="1"/>
       <c r="M24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1448,13 +1447,13 @@
         <v>207</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1476,7 +1475,7 @@
       </c>
       <c r="K25" s="1"/>
       <c r="M25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1484,13 +1483,13 @@
         <v>208</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1512,7 +1511,7 @@
       </c>
       <c r="K26" s="1"/>
       <c r="M26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -1520,13 +1519,13 @@
         <v>209</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1548,7 +1547,7 @@
       </c>
       <c r="K27" s="1"/>
       <c r="M27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1556,13 +1555,13 @@
         <v>301</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1585,13 +1584,13 @@
         <v>401</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1614,13 +1613,13 @@
         <v>402</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1643,13 +1642,13 @@
         <v>403</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1672,13 +1671,13 @@
         <v>404</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1701,13 +1700,13 @@
         <v>405</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1730,13 +1729,13 @@
         <v>406</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1759,13 +1758,13 @@
         <v>407</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -1785,13 +1784,13 @@
         <v>408</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -1811,13 +1810,13 @@
         <v>501</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -1836,7 +1835,7 @@
       </c>
       <c r="J37" s="1"/>
       <c r="M37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -1844,13 +1843,13 @@
         <v>502</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1869,7 +1868,7 @@
       </c>
       <c r="J38" s="1"/>
       <c r="M38" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
